--- a/html/resources/aoiConditions/train2P1Block2Test.xlsx
+++ b/html/resources/aoiConditions/train2P1Block2Test.xlsx
@@ -34,16 +34,16 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/08_tipako2.wav</t>
-  </si>
-  <si>
-    <t>pngimages/08_bell.png</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/23_lemon.png</t>
+    <t>trainingaudio/14_pokoto1.wav</t>
+  </si>
+  <si>
+    <t>pngimages/14_coffee.png</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata2.wav</t>
+  </si>
+  <si>
+    <t>pngimages/09_plane.png</t>
   </si>
 </sst>
 </file>

--- a/html/resources/aoiConditions/train2P1Block2Test.xlsx
+++ b/html/resources/aoiConditions/train2P1Block2Test.xlsx
@@ -22,7 +22,7 @@
     <t>imageTrue</t>
   </si>
   <si>
-    <t>audioFalse</t>
+    <t>currentPhase</t>
   </si>
   <si>
     <t>imageFalse</t>
@@ -40,7 +40,7 @@
     <t>pngimages/14_coffee.png</t>
   </si>
   <si>
-    <t>trainingaudio/09_tipata2.wav</t>
+    <t>train2P1</t>
   </si>
   <si>
     <t>pngimages/09_plane.png</t>
